--- a/Experiments_result.xlsx
+++ b/Experiments_result.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\WarningCascading_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287B22EF-982B-4B39-A961-6637D93C9C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4F4C42-0B85-4790-A326-42106A26E67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GroundTruth update" sheetId="2" r:id="rId1"/>
-    <sheet name="Gumtree-Hydrogen Venn Diagram" sheetId="6" r:id="rId2"/>
-    <sheet name="Inspection of real-world case" sheetId="7" r:id="rId3"/>
+    <sheet name="Gumtree-Hydrogen Venn Diagram" sheetId="6" r:id="rId1"/>
+    <sheet name="Inspection of real-world case" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>Benchmark</t>
   </si>
@@ -103,67 +102,13 @@
     <t>find-091557f6</t>
   </si>
   <si>
-    <t>Fixed | false positive</t>
-  </si>
-  <si>
-    <t>Buggy-fix Benchmark</t>
-  </si>
-  <si>
-    <t>Pair</t>
-  </si>
-  <si>
-    <t>Tool</t>
-  </si>
-  <si>
-    <t>no match</t>
-  </si>
-  <si>
     <t>match</t>
   </si>
   <si>
-    <t>v1: warning; v2: warning</t>
-  </si>
-  <si>
-    <t>match with same statement</t>
-  </si>
-  <si>
-    <t>match with diff statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no match with same statement </t>
-  </si>
-  <si>
-    <t>no match with diff statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMD </t>
-  </si>
-  <si>
     <t>Hydrogen</t>
   </si>
   <si>
     <t>Scale</t>
-  </si>
-  <si>
-    <t>GumTree</t>
-  </si>
-  <si>
-    <t>Zister</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>buggy | no false negative</t>
-  </si>
-  <si>
-    <t>Buggy-Buggy Benchmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v1: warning; v2: warning </t>
-  </si>
-  <si>
-    <t>AMD</t>
   </si>
   <si>
     <t>Hydrogen Match</t>
@@ -263,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -295,13 +240,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -373,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -407,7 +345,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -417,46 +357,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -464,30 +367,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -766,67 +645,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -834,82 +702,76 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1124,447 +986,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="3" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="12.75">
-      <c r="D1" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75">
-      <c r="A3" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="72">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="72">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>10</v>
-      </c>
-      <c r="H4" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="14">
-        <v>10</v>
-      </c>
-      <c r="F5" s="15">
-        <v>3</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" hidden="1">
-      <c r="A6" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="72">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="72">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9">
-        <v>2</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" hidden="1">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" hidden="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15">
-        <v>2</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75">
-      <c r="A9" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="72">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="72">
-        <v>26</v>
-      </c>
-      <c r="E9" s="8">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>21</v>
-      </c>
-      <c r="H10" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="14">
-        <v>21</v>
-      </c>
-      <c r="F11" s="15">
-        <v>3</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75">
-      <c r="D13" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75">
-      <c r="A14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75">
-      <c r="A15" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="72">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="72">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="4">
-        <v>19</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="12.75">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="12">
-        <v>20</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" hidden="1">
-      <c r="A18" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="72">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="72">
-        <v>7</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" hidden="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" hidden="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="12.75">
-      <c r="A21" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="72">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="72">
-        <v>37</v>
-      </c>
-      <c r="E21" s="4">
-        <v>36</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="4">
-        <v>35</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="74"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="12">
-        <v>36</v>
-      </c>
-      <c r="F23" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12.75">
-      <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D3:D5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1588,143 +1009,143 @@
     <col min="12" max="15" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70" t="s">
+    <row r="1" spans="1:15" ht="12.75">
+      <c r="A1" s="56"/>
+      <c r="B1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="25" t="s">
-        <v>45</v>
+      <c r="D1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="12.75">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C14" si="0">SUM(L3:O3)</f>
         <v>74</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="19">
         <v>72</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="20">
         <v>2</v>
       </c>
-      <c r="F3" s="31">
-        <v>0</v>
-      </c>
-      <c r="G3" s="32">
-        <v>0</v>
-      </c>
-      <c r="H3" s="30">
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
         <v>74</v>
       </c>
-      <c r="I3" s="31">
-        <v>0</v>
-      </c>
-      <c r="J3" s="31">
-        <v>0</v>
-      </c>
-      <c r="K3" s="32">
-        <v>0</v>
-      </c>
-      <c r="L3" s="30">
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
         <v>72</v>
       </c>
-      <c r="M3" s="31">
-        <v>0</v>
-      </c>
-      <c r="N3" s="31">
+      <c r="M3" s="20">
+        <v>0</v>
+      </c>
+      <c r="N3" s="20">
         <v>2</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A4" s="29" t="s">
-        <v>52</v>
+      <c r="A4" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -1733,46 +1154,46 @@
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="19">
         <v>101</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="20">
         <v>2</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="20">
         <v>1</v>
       </c>
-      <c r="G4" s="32">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
         <v>103</v>
       </c>
-      <c r="I4" s="31">
-        <v>0</v>
-      </c>
-      <c r="J4" s="31">
-        <v>0</v>
-      </c>
-      <c r="K4" s="32">
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
         <v>1</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="19">
         <v>101</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="20">
         <v>1</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="20">
         <v>2</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>53</v>
+      <c r="A5" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1781,46 +1202,46 @@
         <f t="shared" si="0"/>
         <v>286</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="19">
         <v>274</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="20">
         <v>3</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="20">
         <v>2</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="21">
         <v>7</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="19">
         <v>277</v>
       </c>
-      <c r="I5" s="31">
-        <v>0</v>
-      </c>
-      <c r="J5" s="31">
-        <v>0</v>
-      </c>
-      <c r="K5" s="32">
+      <c r="I5" s="20">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
         <v>9</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="19">
         <v>274</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="20">
         <v>2</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="20">
         <v>3</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>54</v>
+      <c r="A6" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -1829,46 +1250,46 @@
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="19">
         <v>82</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="20">
         <v>1</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="20">
         <v>21</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="21">
         <v>35</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="19">
         <v>81</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="20">
         <v>2</v>
       </c>
-      <c r="J6" s="31">
-        <v>0</v>
-      </c>
-      <c r="K6" s="32">
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
         <v>56</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="19">
         <v>80</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="20">
         <v>23</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="20">
         <v>1</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="22">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A7" s="29" t="s">
-        <v>55</v>
+      <c r="A7" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -1877,46 +1298,46 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="19">
         <v>36</v>
       </c>
-      <c r="E7" s="31">
-        <v>0</v>
-      </c>
-      <c r="F7" s="31">
-        <v>0</v>
-      </c>
-      <c r="G7" s="32">
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
         <v>18</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="19">
         <v>36</v>
       </c>
-      <c r="I7" s="31">
-        <v>0</v>
-      </c>
-      <c r="J7" s="31">
-        <v>0</v>
-      </c>
-      <c r="K7" s="32">
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
         <v>18</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="19">
         <v>36</v>
       </c>
-      <c r="M7" s="31">
-        <v>0</v>
-      </c>
-      <c r="N7" s="31">
-        <v>0</v>
-      </c>
-      <c r="O7" s="33">
+      <c r="M7" s="20">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A8" s="29" t="s">
-        <v>56</v>
+      <c r="A8" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -1925,45 +1346,45 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="19">
         <v>46</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="20">
         <v>1</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="20">
         <v>1</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="21">
         <v>13</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="19">
         <v>47</v>
       </c>
-      <c r="I8" s="31">
-        <v>0</v>
-      </c>
-      <c r="J8" s="31">
-        <v>0</v>
-      </c>
-      <c r="K8" s="32">
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
         <v>14</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="19">
         <v>46</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="20">
         <v>1</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="20">
         <v>1</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="22">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1973,45 +1394,45 @@
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="19">
         <v>198</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="20">
         <v>5</v>
       </c>
-      <c r="F9" s="31">
-        <v>0</v>
-      </c>
-      <c r="G9" s="32">
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
         <v>10</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="19">
         <v>203</v>
       </c>
-      <c r="I9" s="31">
-        <v>0</v>
-      </c>
-      <c r="J9" s="31">
-        <v>0</v>
-      </c>
-      <c r="K9" s="32">
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
         <v>10</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="19">
         <v>198</v>
       </c>
-      <c r="M9" s="31">
-        <v>0</v>
-      </c>
-      <c r="N9" s="31">
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="N9" s="20">
         <v>5</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2021,45 +1442,45 @@
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="19">
         <v>58</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="20">
         <v>2</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="20">
         <v>4</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="21">
         <v>65</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="19">
         <v>39</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="20">
         <v>21</v>
       </c>
-      <c r="J10" s="31">
-        <v>0</v>
-      </c>
-      <c r="K10" s="32">
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
         <v>69</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="19">
         <v>37</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="20">
         <v>25</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="20">
         <v>2</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="22">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2069,45 +1490,45 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="19">
         <v>8</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="20">
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="20">
         <v>10</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="21">
         <v>43</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="19">
         <v>8</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="20">
         <v>1</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="20">
         <v>8</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="21">
         <v>45</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="19">
         <v>17</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="20">
         <v>2</v>
       </c>
-      <c r="N11" s="31">
-        <v>0</v>
-      </c>
-      <c r="O11" s="33">
+      <c r="N11" s="20">
+        <v>0</v>
+      </c>
+      <c r="O11" s="22">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2117,45 +1538,45 @@
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="19">
         <v>94</v>
       </c>
-      <c r="E12" s="31">
-        <v>0</v>
-      </c>
-      <c r="F12" s="31">
-        <v>0</v>
-      </c>
-      <c r="G12" s="32">
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
         <v>53</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="19">
         <v>44</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="20">
         <v>50</v>
       </c>
-      <c r="J12" s="31">
-        <v>0</v>
-      </c>
-      <c r="K12" s="32">
+      <c r="J12" s="20">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
         <v>53</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="19">
         <v>44</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="20">
         <v>50</v>
       </c>
-      <c r="N12" s="31">
-        <v>0</v>
-      </c>
-      <c r="O12" s="33">
+      <c r="N12" s="20">
+        <v>0</v>
+      </c>
+      <c r="O12" s="22">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2165,45 +1586,45 @@
         <f t="shared" si="0"/>
         <v>572</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="19">
         <v>185</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="20">
         <v>14</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="20">
         <v>154</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="21">
         <v>219</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="19">
         <v>198</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="20">
         <v>1</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="20">
         <v>36</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="21">
         <v>337</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="19">
         <v>220</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="20">
         <v>119</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="20">
         <v>14</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="22">
         <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2213,48 +1634,48 @@
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="23">
         <v>100</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="24">
         <v>16</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="24">
         <v>27</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="25">
         <v>129</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="23">
         <v>62</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="24">
         <v>54</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="24">
         <v>4</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="25">
         <v>152</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="23">
         <v>64</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="24">
         <v>63</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="24">
         <v>2</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="26">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="73"/>
+    <row r="15" spans="1:15" ht="12.75">
+      <c r="A15" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="55"/>
       <c r="C15" s="1">
         <f t="shared" ref="C15:O15" si="1">SUM(C3:C14)</f>
         <v>2113</v>
@@ -2308,25 +1729,25 @@
         <v>606</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="73"/>
-    </row>
-    <row r="19" spans="1:3">
+    <row r="18" spans="1:3" ht="12.75">
+      <c r="A18" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="55"/>
+    </row>
+    <row r="19" spans="1:3" ht="12.75">
       <c r="A19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="39"/>
-    </row>
-    <row r="20" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:3" ht="12.75">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="40"/>
+      <c r="C20" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2340,7 +1761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2363,72 +1784,72 @@
     <col min="11" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="82"/>
+    <row r="1" spans="1:19" ht="12.75">
+      <c r="A1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="43" t="s">
+      <c r="A2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="32" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>34</v>
+      <c r="A3" s="63" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="46">
+        <v>22</v>
+      </c>
+      <c r="C3" s="35">
         <v>25</v>
       </c>
       <c r="D3" s="4">
@@ -2437,10 +1858,10 @@
       <c r="E3" s="4">
         <v>22</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="21">
         <v>32</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="22">
         <v>30</v>
       </c>
       <c r="H3" s="3">
@@ -2455,16 +1876,16 @@
       <c r="K3" s="3">
         <v>18</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="36">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="87"/>
+    <row r="4" spans="1:19" ht="12.75">
+      <c r="A4" s="77"/>
       <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="19">
+        <v>47</v>
+      </c>
+      <c r="C4" s="8">
         <v>0</v>
       </c>
       <c r="D4" s="3">
@@ -2476,7 +1897,7 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="36">
         <v>0</v>
       </c>
       <c r="H4" s="4">
@@ -2491,18 +1912,18 @@
       <c r="K4" s="4">
         <v>12</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="37">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="86" t="s">
-        <v>66</v>
+    <row r="5" spans="1:19" ht="12.75">
+      <c r="A5" s="63" t="s">
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="46">
+        <v>22</v>
+      </c>
+      <c r="C5" s="35">
         <v>20</v>
       </c>
       <c r="D5" s="4">
@@ -2514,7 +1935,7 @@
       <c r="F5" s="4">
         <v>9</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="37">
         <v>18</v>
       </c>
       <c r="H5" s="3">
@@ -2529,16 +1950,16 @@
       <c r="K5" s="3">
         <v>5</v>
       </c>
-      <c r="L5" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="87"/>
+      <c r="L5" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="12.75">
+      <c r="A6" s="77"/>
       <c r="B6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="19">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8">
         <v>5</v>
       </c>
       <c r="D6" s="3">
@@ -2550,7 +1971,7 @@
       <c r="F6" s="3">
         <v>23</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="36">
         <v>12</v>
       </c>
       <c r="H6" s="4">
@@ -2565,18 +1986,18 @@
       <c r="K6" s="4">
         <v>25</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="37">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="86" t="s">
-        <v>35</v>
+    <row r="7" spans="1:19" ht="12.75">
+      <c r="A7" s="63" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="46">
+        <v>22</v>
+      </c>
+      <c r="C7" s="35">
         <v>25</v>
       </c>
       <c r="D7" s="4">
@@ -2588,7 +2009,7 @@
       <c r="F7" s="4">
         <v>12</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="37">
         <v>29</v>
       </c>
       <c r="H7" s="3">
@@ -2603,288 +2024,293 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="36">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="76"/>
-      <c r="B8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="49">
-        <v>0</v>
-      </c>
-      <c r="D8" s="50">
+    <row r="8" spans="1:19" ht="12.75">
+      <c r="A8" s="60"/>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="38">
+        <v>0</v>
+      </c>
+      <c r="D8" s="39">
         <v>2</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="39">
         <v>20</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="39">
         <v>20</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="40">
         <v>1</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="41">
         <v>10</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="41">
         <v>21</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="41">
         <v>24</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="41">
         <v>30</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="42">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="N9" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
+    <row r="9" spans="1:19" ht="12.75">
+      <c r="N9" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1">
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="N11" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11" s="94"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="N12" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="55">
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+    </row>
+    <row r="11" spans="1:19" ht="12.75">
+      <c r="N11" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="68"/>
+      <c r="P11" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="70"/>
+    </row>
+    <row r="12" spans="1:19" ht="12.75">
+      <c r="N12" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="44">
         <f>SUM(P13,P14,Q14,Q13)</f>
         <v>267</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="N13" s="89" t="s">
-        <v>71</v>
+      <c r="Q12" s="45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="12.75">
+      <c r="N13" s="65" t="s">
+        <v>53</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="57">
+      <c r="P13" s="46">
         <f>SUM(C3,D3,E3,G3,F3)</f>
         <v>142</v>
       </c>
-      <c r="Q13" s="58">
-        <v>0</v>
-      </c>
-      <c r="R13" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="S13" s="60">
+      <c r="Q13" s="47">
+        <v>0</v>
+      </c>
+      <c r="R13" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="S13" s="49">
         <f>SUM(P13,Q14)</f>
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="N14" s="90"/>
-      <c r="O14" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="62">
+    <row r="14" spans="1:19" ht="12.75">
+      <c r="N14" s="66"/>
+      <c r="O14" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="51">
         <f>SUM(H3,I3,J3,L3,K3)</f>
         <v>40</v>
       </c>
-      <c r="Q14" s="63">
+      <c r="Q14" s="52">
         <f>SUM(H4,I4,J4,L4,K4)</f>
         <v>85</v>
       </c>
-      <c r="R14" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="65">
+      <c r="R14" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" s="54">
         <f>SUM(Q13,P14)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" ht="12.75">
       <c r="R15" s="5"/>
-      <c r="S15" s="38"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="N16" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="94"/>
+      <c r="S15" s="27"/>
+    </row>
+    <row r="16" spans="1:19" ht="12.75">
+      <c r="N16" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="68"/>
+      <c r="P16" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="70"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="38"/>
-    </row>
-    <row r="17" spans="14:19">
-      <c r="N17" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="O17" s="55">
+      <c r="S16" s="27"/>
+    </row>
+    <row r="17" spans="14:19" ht="12.75">
+      <c r="N17" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="44">
         <f>SUM(P18,P19,Q18,Q19)</f>
         <v>267</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="56" t="s">
-        <v>70</v>
+      <c r="Q17" s="45" t="s">
+        <v>52</v>
       </c>
       <c r="R17" s="5"/>
-      <c r="S17" s="38"/>
-    </row>
-    <row r="18" spans="14:19">
-      <c r="N18" s="89" t="s">
-        <v>71</v>
+      <c r="S17" s="27"/>
+    </row>
+    <row r="18" spans="14:19" ht="12.75">
+      <c r="N18" s="65" t="s">
+        <v>53</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="57">
+      <c r="P18" s="46">
         <f>SUM(C5,D5,E5,G5,F5)</f>
         <v>99</v>
       </c>
-      <c r="Q18" s="58">
+      <c r="Q18" s="47">
         <f>SUM(C6,D6,E6,G6,F6)</f>
         <v>43</v>
       </c>
-      <c r="R18" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="S18" s="60">
+      <c r="R18" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="S18" s="49">
         <f>SUM(P18,Q19)</f>
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="14:19">
-      <c r="N19" s="90"/>
-      <c r="O19" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" s="62">
+    <row r="19" spans="14:19" ht="12.75">
+      <c r="N19" s="66"/>
+      <c r="O19" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="51">
         <f>SUM(H5,I5,J5,L5,K5)</f>
         <v>29</v>
       </c>
-      <c r="Q19" s="63">
+      <c r="Q19" s="52">
         <f>SUM(H6,I6,J6,K6,L6)</f>
         <v>96</v>
       </c>
-      <c r="R19" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="S19" s="65">
+      <c r="R19" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" s="54">
         <f>SUM(Q18,P19)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="14:19">
+    <row r="20" spans="14:19" ht="12.75">
       <c r="R20" s="5"/>
-      <c r="S20" s="38"/>
-    </row>
-    <row r="21" spans="14:19">
-      <c r="N21" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" s="92"/>
-      <c r="P21" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q21" s="94"/>
+      <c r="S20" s="27"/>
+    </row>
+    <row r="21" spans="14:19" ht="12.75">
+      <c r="N21" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="68"/>
+      <c r="P21" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="70"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="38"/>
-    </row>
-    <row r="22" spans="14:19">
-      <c r="N22" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="O22" s="55">
+      <c r="S21" s="27"/>
+    </row>
+    <row r="22" spans="14:19" ht="12.75">
+      <c r="N22" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22" s="44">
         <f>SUM(P23,P24,Q23,Q24)</f>
         <v>267</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="56" t="s">
-        <v>70</v>
+      <c r="Q22" s="45" t="s">
+        <v>52</v>
       </c>
       <c r="R22" s="5"/>
-      <c r="S22" s="38"/>
-    </row>
-    <row r="23" spans="14:19">
-      <c r="N23" s="89" t="s">
-        <v>71</v>
+      <c r="S22" s="27"/>
+    </row>
+    <row r="23" spans="14:19" ht="12.75">
+      <c r="N23" s="65" t="s">
+        <v>53</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="57">
+      <c r="P23" s="46">
         <f>SUM(C7,D7,E7,F7,G7)</f>
         <v>99</v>
       </c>
-      <c r="Q23" s="58">
+      <c r="Q23" s="47">
         <f>SUM(C8,D8,E8,F8,G8)</f>
         <v>43</v>
       </c>
-      <c r="R23" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="S23" s="60">
+      <c r="R23" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="S23" s="49">
         <f>SUM(P23,Q24)</f>
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="14:19">
-      <c r="N24" s="90"/>
-      <c r="O24" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="P24" s="62">
+    <row r="24" spans="14:19" ht="12.75">
+      <c r="N24" s="66"/>
+      <c r="O24" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="51">
         <f>SUM(H7,I7,J7,K7,L7)</f>
         <v>8</v>
       </c>
-      <c r="Q24" s="63">
+      <c r="Q24" s="52">
         <f>SUM(H8,I8,J8,K8,L8)</f>
         <v>117</v>
       </c>
-      <c r="R24" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="S24" s="65">
+      <c r="R24" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="S24" s="54">
         <f>SUM(Q23,P24)</f>
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="N9:S10"/>
     <mergeCell ref="N18:N19"/>
@@ -2896,11 +2322,6 @@
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
